--- a/original training data/train-classes-working-doc.xlsx
+++ b/original training data/train-classes-working-doc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python codes\CAN data Python tests\can data classifier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://centriafi-my.sharepoint.com/personal/tero_niemi_centria_fi/Documents/Työpöytä/can data classifier/original training data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108EC141-2B8C-47C9-B242-8FA02B9A6ECC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{108EC141-2B8C-47C9-B242-8FA02B9A6ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0DB6A12-9890-4893-9DFF-B08FDCC66B5E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teslauusi" sheetId="12" r:id="rId1"/>
@@ -3644,16 +3644,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042ED0F9-21CB-4D67-80E9-1D0E214549BC}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C1030"/>
   <sheetViews>
-    <sheetView topLeftCell="A1002" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C1030"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -3667,7 +3668,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>89</v>
       </c>
@@ -3678,7 +3679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>90</v>
       </c>
@@ -3689,7 +3690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>91</v>
       </c>
@@ -3711,7 +3712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>90</v>
       </c>
@@ -3733,7 +3734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>90</v>
       </c>
@@ -3755,7 +3756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>90</v>
       </c>
@@ -3777,7 +3778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>90</v>
       </c>
@@ -3799,7 +3800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>90</v>
       </c>
@@ -3821,7 +3822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>90</v>
       </c>
@@ -3843,7 +3844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>90</v>
       </c>
@@ -3865,7 +3866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>90</v>
       </c>
@@ -3887,7 +3888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>90</v>
       </c>
@@ -3909,7 +3910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>90</v>
       </c>
@@ -3920,7 +3921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>91</v>
       </c>
@@ -3942,7 +3943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>90</v>
       </c>
@@ -3964,7 +3965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>90</v>
       </c>
@@ -3986,7 +3987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>90</v>
       </c>
@@ -4008,7 +4009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>90</v>
       </c>
@@ -4030,7 +4031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>90</v>
       </c>
@@ -4052,7 +4053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>90</v>
       </c>
@@ -4074,7 +4075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>90</v>
       </c>
@@ -4096,7 +4097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>90</v>
       </c>
@@ -4107,7 +4108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>92</v>
       </c>
@@ -4129,7 +4130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>90</v>
       </c>
@@ -4151,7 +4152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
@@ -4162,7 +4163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>91</v>
       </c>
@@ -4173,7 +4174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
@@ -4195,7 +4196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>90</v>
       </c>
@@ -4206,7 +4207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>93</v>
       </c>
@@ -4217,7 +4218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>94</v>
       </c>
@@ -4239,7 +4240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>90</v>
       </c>
@@ -4261,7 +4262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>90</v>
       </c>
@@ -4283,7 +4284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>90</v>
       </c>
@@ -4305,7 +4306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>90</v>
       </c>
@@ -4327,7 +4328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>90</v>
       </c>
@@ -4349,7 +4350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>90</v>
       </c>
@@ -4360,7 +4361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>92</v>
       </c>
@@ -4382,7 +4383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>90</v>
       </c>
@@ -4404,7 +4405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>90</v>
       </c>
@@ -4426,7 +4427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>90</v>
       </c>
@@ -4437,7 +4438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>91</v>
       </c>
@@ -4459,7 +4460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>90</v>
       </c>
@@ -4481,7 +4482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>90</v>
       </c>
@@ -4503,7 +4504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
@@ -4525,7 +4526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>90</v>
       </c>
@@ -4547,7 +4548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>90</v>
       </c>
@@ -4569,7 +4570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>90</v>
       </c>
@@ -4591,7 +4592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>90</v>
       </c>
@@ -4602,7 +4603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>92</v>
       </c>
@@ -4624,7 +4625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>90</v>
       </c>
@@ -4646,7 +4647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
@@ -4668,7 +4669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>90</v>
       </c>
@@ -4679,7 +4680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>91</v>
       </c>
@@ -4701,7 +4702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>90</v>
       </c>
@@ -4723,7 +4724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>90</v>
       </c>
@@ -4745,7 +4746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>90</v>
       </c>
@@ -4767,7 +4768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>90</v>
       </c>
@@ -4789,7 +4790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>90</v>
       </c>
@@ -4811,7 +4812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>90</v>
       </c>
@@ -4833,7 +4834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>90</v>
       </c>
@@ -4844,7 +4845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>92</v>
       </c>
@@ -4866,7 +4867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>90</v>
       </c>
@@ -4888,7 +4889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>90</v>
       </c>
@@ -4910,7 +4911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>90</v>
       </c>
@@ -4921,7 +4922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>91</v>
       </c>
@@ -4943,7 +4944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>90</v>
       </c>
@@ -4965,7 +4966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>90</v>
       </c>
@@ -4987,7 +4988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>90</v>
       </c>
@@ -5009,7 +5010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>90</v>
       </c>
@@ -5031,7 +5032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>90</v>
       </c>
@@ -5053,7 +5054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>90</v>
       </c>
@@ -5075,7 +5076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>90</v>
       </c>
@@ -5086,7 +5087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>92</v>
       </c>
@@ -5108,7 +5109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>90</v>
       </c>
@@ -5130,7 +5131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>90</v>
       </c>
@@ -5152,7 +5153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>90</v>
       </c>
@@ -5163,7 +5164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>91</v>
       </c>
@@ -5185,7 +5186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>90</v>
       </c>
@@ -5207,7 +5208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>90</v>
       </c>
@@ -5229,7 +5230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>90</v>
       </c>
@@ -5251,7 +5252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>90</v>
       </c>
@@ -5273,7 +5274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>90</v>
       </c>
@@ -5295,7 +5296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>90</v>
       </c>
@@ -5317,7 +5318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>90</v>
       </c>
@@ -5328,7 +5329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>92</v>
       </c>
@@ -5350,7 +5351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>90</v>
       </c>
@@ -5372,7 +5373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>90</v>
       </c>
@@ -5394,7 +5395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>90</v>
       </c>
@@ -5405,7 +5406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>91</v>
       </c>
@@ -5427,7 +5428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>90</v>
       </c>
@@ -5438,7 +5439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>93</v>
       </c>
@@ -5449,7 +5450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>94</v>
       </c>
@@ -5471,7 +5472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>90</v>
       </c>
@@ -5493,7 +5494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>90</v>
       </c>
@@ -5515,7 +5516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>90</v>
       </c>
@@ -5537,7 +5538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>90</v>
       </c>
@@ -5559,7 +5560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>90</v>
       </c>
@@ -5581,7 +5582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>90</v>
       </c>
@@ -5592,7 +5593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>92</v>
       </c>
@@ -5614,7 +5615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>90</v>
       </c>
@@ -5636,7 +5637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>90</v>
       </c>
@@ -5658,7 +5659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>90</v>
       </c>
@@ -5669,7 +5670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>91</v>
       </c>
@@ -5691,7 +5692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>90</v>
       </c>
@@ -5713,7 +5714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>90</v>
       </c>
@@ -5735,7 +5736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>90</v>
       </c>
@@ -5757,7 +5758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>90</v>
       </c>
@@ -5779,7 +5780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>90</v>
       </c>
@@ -5801,7 +5802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>90</v>
       </c>
@@ -5823,7 +5824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>90</v>
       </c>
@@ -5834,7 +5835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>92</v>
       </c>
@@ -5856,7 +5857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>90</v>
       </c>
@@ -5878,7 +5879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>90</v>
       </c>
@@ -5900,7 +5901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>90</v>
       </c>
@@ -5911,7 +5912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>91</v>
       </c>
@@ -5933,7 +5934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>90</v>
       </c>
@@ -5955,7 +5956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>90</v>
       </c>
@@ -5977,7 +5978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>90</v>
       </c>
@@ -5999,7 +6000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>90</v>
       </c>
@@ -6021,7 +6022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>90</v>
       </c>
@@ -6043,7 +6044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>90</v>
       </c>
@@ -6065,7 +6066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>90</v>
       </c>
@@ -6076,7 +6077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>92</v>
       </c>
@@ -6098,7 +6099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>90</v>
       </c>
@@ -6120,7 +6121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>90</v>
       </c>
@@ -6142,7 +6143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>90</v>
       </c>
@@ -6153,7 +6154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>91</v>
       </c>
@@ -6175,7 +6176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>90</v>
       </c>
@@ -6197,7 +6198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>90</v>
       </c>
@@ -6219,7 +6220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>90</v>
       </c>
@@ -6241,7 +6242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>90</v>
       </c>
@@ -6263,7 +6264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>90</v>
       </c>
@@ -6285,7 +6286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>90</v>
       </c>
@@ -6307,7 +6308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>90</v>
       </c>
@@ -6318,7 +6319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>92</v>
       </c>
@@ -6340,7 +6341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>90</v>
       </c>
@@ -6362,7 +6363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>90</v>
       </c>
@@ -6384,7 +6385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>90</v>
       </c>
@@ -6395,7 +6396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>91</v>
       </c>
@@ -6417,7 +6418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>90</v>
       </c>
@@ -6439,7 +6440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>90</v>
       </c>
@@ -6461,7 +6462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>90</v>
       </c>
@@ -6483,7 +6484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>90</v>
       </c>
@@ -6505,7 +6506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>90</v>
       </c>
@@ -6527,7 +6528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>90</v>
       </c>
@@ -6549,7 +6550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>90</v>
       </c>
@@ -6560,7 +6561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>92</v>
       </c>
@@ -6582,7 +6583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>90</v>
       </c>
@@ -6604,7 +6605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>90</v>
       </c>
@@ -6626,7 +6627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>90</v>
       </c>
@@ -6637,7 +6638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>91</v>
       </c>
@@ -6659,7 +6660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>90</v>
       </c>
@@ -6670,7 +6671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>93</v>
       </c>
@@ -6681,7 +6682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>94</v>
       </c>
@@ -6703,7 +6704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>90</v>
       </c>
@@ -6725,7 +6726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>90</v>
       </c>
@@ -6747,7 +6748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>90</v>
       </c>
@@ -6769,7 +6770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>90</v>
       </c>
@@ -6791,7 +6792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>90</v>
       </c>
@@ -6813,7 +6814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>90</v>
       </c>
@@ -6824,7 +6825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>92</v>
       </c>
@@ -6846,7 +6847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>90</v>
       </c>
@@ -6868,7 +6869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>90</v>
       </c>
@@ -6890,7 +6891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>90</v>
       </c>
@@ -6901,7 +6902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>91</v>
       </c>
@@ -6923,7 +6924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>90</v>
       </c>
@@ -6945,7 +6946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>90</v>
       </c>
@@ -6967,7 +6968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>90</v>
       </c>
@@ -6989,7 +6990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>90</v>
       </c>
@@ -7011,7 +7012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>90</v>
       </c>
@@ -7033,7 +7034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>90</v>
       </c>
@@ -7055,7 +7056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>90</v>
       </c>
@@ -7066,7 +7067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>92</v>
       </c>
@@ -7088,7 +7089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>90</v>
       </c>
@@ -7110,7 +7111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>90</v>
       </c>
@@ -7132,7 +7133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>90</v>
       </c>
@@ -7143,7 +7144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>91</v>
       </c>
@@ -7165,7 +7166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>90</v>
       </c>
@@ -7187,7 +7188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>90</v>
       </c>
@@ -7209,7 +7210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>90</v>
       </c>
@@ -7231,7 +7232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>90</v>
       </c>
@@ -7253,7 +7254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>90</v>
       </c>
@@ -7275,7 +7276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>90</v>
       </c>
@@ -7297,7 +7298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>90</v>
       </c>
@@ -7308,7 +7309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>92</v>
       </c>
@@ -7330,7 +7331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>90</v>
       </c>
@@ -7352,7 +7353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>90</v>
       </c>
@@ -7374,7 +7375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>90</v>
       </c>
@@ -7385,7 +7386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
         <v>91</v>
       </c>
@@ -7407,7 +7408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>90</v>
       </c>
@@ -7429,7 +7430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>90</v>
       </c>
@@ -7451,7 +7452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>90</v>
       </c>
@@ -7473,7 +7474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>90</v>
       </c>
@@ -7495,7 +7496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>90</v>
       </c>
@@ -7517,7 +7518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>90</v>
       </c>
@@ -7539,7 +7540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>90</v>
       </c>
@@ -7550,7 +7551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
         <v>92</v>
       </c>
@@ -7572,7 +7573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>90</v>
       </c>
@@ -7594,7 +7595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>90</v>
       </c>
@@ -7616,7 +7617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>90</v>
       </c>
@@ -7627,7 +7628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
         <v>91</v>
       </c>
@@ -7649,7 +7650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>90</v>
       </c>
@@ -7671,7 +7672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>90</v>
       </c>
@@ -7693,7 +7694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>90</v>
       </c>
@@ -7715,7 +7716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>90</v>
       </c>
@@ -7737,7 +7738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>90</v>
       </c>
@@ -7759,7 +7760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>90</v>
       </c>
@@ -7781,7 +7782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>90</v>
       </c>
@@ -7792,7 +7793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
         <v>92</v>
       </c>
@@ -7814,7 +7815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>90</v>
       </c>
@@ -7836,7 +7837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>90</v>
       </c>
@@ -7858,7 +7859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>90</v>
       </c>
@@ -7869,7 +7870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
         <v>91</v>
       </c>
@@ -7891,7 +7892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>90</v>
       </c>
@@ -7902,7 +7903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>93</v>
       </c>
@@ -7913,7 +7914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
         <v>94</v>
       </c>
@@ -7935,7 +7936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
         <v>90</v>
       </c>
@@ -7957,7 +7958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
         <v>90</v>
       </c>
@@ -7979,7 +7980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
         <v>90</v>
       </c>
@@ -8001,7 +8002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
         <v>90</v>
       </c>
@@ -8023,7 +8024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
         <v>90</v>
       </c>
@@ -8045,7 +8046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
         <v>90</v>
       </c>
@@ -8056,7 +8057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>92</v>
       </c>
@@ -8078,7 +8079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
         <v>90</v>
       </c>
@@ -8100,7 +8101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
         <v>90</v>
       </c>
@@ -8122,7 +8123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
         <v>90</v>
       </c>
@@ -8133,7 +8134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>91</v>
       </c>
@@ -8155,7 +8156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
         <v>90</v>
       </c>
@@ -8177,7 +8178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
         <v>90</v>
       </c>
@@ -8199,7 +8200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
         <v>90</v>
       </c>
@@ -8221,7 +8222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
         <v>90</v>
       </c>
@@ -8243,7 +8244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
         <v>90</v>
       </c>
@@ -8265,7 +8266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
         <v>90</v>
       </c>
@@ -8287,7 +8288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
         <v>90</v>
       </c>
@@ -8298,7 +8299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>92</v>
       </c>
@@ -8320,7 +8321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="2" t="s">
         <v>90</v>
       </c>
@@ -8342,7 +8343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
         <v>90</v>
       </c>
@@ -8364,7 +8365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
         <v>90</v>
       </c>
@@ -8375,7 +8376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>91</v>
       </c>
@@ -8397,7 +8398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
         <v>90</v>
       </c>
@@ -8419,7 +8420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
         <v>90</v>
       </c>
@@ -8441,7 +8442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
         <v>90</v>
       </c>
@@ -8463,7 +8464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="2" t="s">
         <v>90</v>
       </c>
@@ -8485,7 +8486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="2" t="s">
         <v>90</v>
       </c>
@@ -8507,7 +8508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="2" t="s">
         <v>90</v>
       </c>
@@ -8529,7 +8530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="2" t="s">
         <v>90</v>
       </c>
@@ -8540,7 +8541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>92</v>
       </c>
@@ -8562,7 +8563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
         <v>90</v>
       </c>
@@ -8584,7 +8585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
         <v>90</v>
       </c>
@@ -8606,7 +8607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="2" t="s">
         <v>90</v>
       </c>
@@ -8617,7 +8618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>91</v>
       </c>
@@ -8639,7 +8640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="2" t="s">
         <v>90</v>
       </c>
@@ -8661,7 +8662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="2" t="s">
         <v>90</v>
       </c>
@@ -8683,7 +8684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="2" t="s">
         <v>90</v>
       </c>
@@ -8705,7 +8706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="2" t="s">
         <v>90</v>
       </c>
@@ -8727,7 +8728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="2" t="s">
         <v>90</v>
       </c>
@@ -8749,7 +8750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="2" t="s">
         <v>90</v>
       </c>
@@ -8771,7 +8772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="2" t="s">
         <v>90</v>
       </c>
@@ -8782,7 +8783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>92</v>
       </c>
@@ -8804,7 +8805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="2" t="s">
         <v>90</v>
       </c>
@@ -8826,7 +8827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="2" t="s">
         <v>90</v>
       </c>
@@ -8848,7 +8849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="2" t="s">
         <v>90</v>
       </c>
@@ -8859,7 +8860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>91</v>
       </c>
@@ -8881,7 +8882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="2" t="s">
         <v>90</v>
       </c>
@@ -8903,7 +8904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="2" t="s">
         <v>90</v>
       </c>
@@ -8925,7 +8926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="2" t="s">
         <v>90</v>
       </c>
@@ -8947,7 +8948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="2" t="s">
         <v>90</v>
       </c>
@@ -8969,7 +8970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="2" t="s">
         <v>90</v>
       </c>
@@ -8991,7 +8992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="2" t="s">
         <v>90</v>
       </c>
@@ -9013,7 +9014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="2" t="s">
         <v>90</v>
       </c>
@@ -9024,7 +9025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>92</v>
       </c>
@@ -9046,7 +9047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="2" t="s">
         <v>90</v>
       </c>
@@ -9068,7 +9069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="2" t="s">
         <v>90</v>
       </c>
@@ -9079,7 +9080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>92</v>
       </c>
@@ -9101,7 +9102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>90</v>
       </c>
@@ -9112,7 +9113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" s="2" t="s">
         <v>91</v>
       </c>
@@ -9123,7 +9124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" s="2" t="s">
         <v>92</v>
       </c>
@@ -9145,7 +9146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="2" t="s">
         <v>90</v>
       </c>
@@ -9156,7 +9157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" s="2" t="s">
         <v>93</v>
       </c>
@@ -9167,7 +9168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>94</v>
       </c>
@@ -9189,7 +9190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>90</v>
       </c>
@@ -9211,7 +9212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>90</v>
       </c>
@@ -9233,7 +9234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>90</v>
       </c>
@@ -9255,7 +9256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
         <v>90</v>
       </c>
@@ -9277,7 +9278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
         <v>90</v>
       </c>
@@ -9299,7 +9300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
         <v>90</v>
       </c>
@@ -9310,7 +9311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" s="2" t="s">
         <v>92</v>
       </c>
@@ -9332,7 +9333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
         <v>90</v>
       </c>
@@ -9354,7 +9355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
         <v>90</v>
       </c>
@@ -9376,7 +9377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
         <v>90</v>
       </c>
@@ -9387,7 +9388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" s="2" t="s">
         <v>91</v>
       </c>
@@ -9409,7 +9410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
         <v>90</v>
       </c>
@@ -9431,7 +9432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
         <v>90</v>
       </c>
@@ -9453,7 +9454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
         <v>90</v>
       </c>
@@ -9475,7 +9476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
         <v>90</v>
       </c>
@@ -9497,7 +9498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
         <v>90</v>
       </c>
@@ -9519,7 +9520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
         <v>90</v>
       </c>
@@ -9541,7 +9542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
         <v>90</v>
       </c>
@@ -9563,7 +9564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
         <v>90</v>
       </c>
@@ -9585,7 +9586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
         <v>90</v>
       </c>
@@ -9607,7 +9608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
         <v>90</v>
       </c>
@@ -9618,7 +9619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" s="2" t="s">
         <v>91</v>
       </c>
@@ -9640,7 +9641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
         <v>90</v>
       </c>
@@ -9662,7 +9663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
         <v>90</v>
       </c>
@@ -9684,7 +9685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
         <v>90</v>
       </c>
@@ -9706,7 +9707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
         <v>90</v>
       </c>
@@ -9728,7 +9729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
         <v>90</v>
       </c>
@@ -9750,7 +9751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" s="1" t="s">
         <v>90</v>
       </c>
@@ -9772,7 +9773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
         <v>90</v>
       </c>
@@ -9794,7 +9795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" s="1" t="s">
         <v>90</v>
       </c>
@@ -9816,7 +9817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" s="1" t="s">
         <v>90</v>
       </c>
@@ -9827,7 +9828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" s="2" t="s">
         <v>92</v>
       </c>
@@ -9849,7 +9850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" s="2" t="s">
         <v>90</v>
       </c>
@@ -9860,7 +9861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
         <v>91</v>
       </c>
@@ -9882,7 +9883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" s="2" t="s">
         <v>90</v>
       </c>
@@ -9893,7 +9894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
         <v>92</v>
       </c>
@@ -9915,7 +9916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
         <v>90</v>
       </c>
@@ -9937,7 +9938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
         <v>90</v>
       </c>
@@ -9959,7 +9960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
         <v>90</v>
       </c>
@@ -9981,7 +9982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
         <v>90</v>
       </c>
@@ -10003,7 +10004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
         <v>90</v>
       </c>
@@ -10025,7 +10026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
         <v>90</v>
       </c>
@@ -10047,7 +10048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
         <v>90</v>
       </c>
@@ -10058,7 +10059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" s="2" t="s">
         <v>92</v>
       </c>
@@ -10080,7 +10081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
         <v>90</v>
       </c>
@@ -10102,7 +10103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
         <v>90</v>
       </c>
@@ -10113,7 +10114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" s="2" t="s">
         <v>91</v>
       </c>
@@ -10135,7 +10136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
         <v>90</v>
       </c>
@@ -10157,7 +10158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
         <v>90</v>
       </c>
@@ -10179,7 +10180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
         <v>90</v>
       </c>
@@ -10201,7 +10202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
         <v>90</v>
       </c>
@@ -10223,7 +10224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
         <v>90</v>
       </c>
@@ -10245,7 +10246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" s="1" t="s">
         <v>90</v>
       </c>
@@ -10267,7 +10268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" s="1" t="s">
         <v>90</v>
       </c>
@@ -10289,7 +10290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" s="1" t="s">
         <v>90</v>
       </c>
@@ -10300,7 +10301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" s="2" t="s">
         <v>92</v>
       </c>
@@ -10322,7 +10323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" s="1" t="s">
         <v>90</v>
       </c>
@@ -10344,7 +10345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" s="1" t="s">
         <v>90</v>
       </c>
@@ -10355,7 +10356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" s="2" t="s">
         <v>91</v>
       </c>
@@ -10377,7 +10378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" s="1" t="s">
         <v>90</v>
       </c>
@@ -10388,7 +10389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" s="1" t="s">
         <v>93</v>
       </c>
@@ -10399,7 +10400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" s="2" t="s">
         <v>94</v>
       </c>
@@ -10421,7 +10422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" s="2" t="s">
         <v>90</v>
       </c>
@@ -10443,7 +10444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" s="2" t="s">
         <v>90</v>
       </c>
@@ -10465,7 +10466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" s="2" t="s">
         <v>90</v>
       </c>
@@ -10487,7 +10488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" s="2" t="s">
         <v>90</v>
       </c>
@@ -10509,7 +10510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" s="2" t="s">
         <v>90</v>
       </c>
@@ -10531,7 +10532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" s="2" t="s">
         <v>90</v>
       </c>
@@ -10553,7 +10554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" s="2" t="s">
         <v>90</v>
       </c>
@@ -10564,7 +10565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" s="1" t="s">
         <v>92</v>
       </c>
@@ -10586,7 +10587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" s="2" t="s">
         <v>90</v>
       </c>
@@ -10608,7 +10609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" s="2" t="s">
         <v>90</v>
       </c>
@@ -10619,7 +10620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" s="1" t="s">
         <v>91</v>
       </c>
@@ -10641,7 +10642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" s="2" t="s">
         <v>90</v>
       </c>
@@ -10663,7 +10664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" s="2" t="s">
         <v>90</v>
       </c>
@@ -10685,7 +10686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" s="2" t="s">
         <v>90</v>
       </c>
@@ -10707,7 +10708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" s="2" t="s">
         <v>90</v>
       </c>
@@ -10729,7 +10730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" s="2" t="s">
         <v>90</v>
       </c>
@@ -10751,7 +10752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" s="2" t="s">
         <v>90</v>
       </c>
@@ -10773,7 +10774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" s="2" t="s">
         <v>90</v>
       </c>
@@ -10795,7 +10796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" s="2" t="s">
         <v>90</v>
       </c>
@@ -10806,7 +10807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" s="1" t="s">
         <v>92</v>
       </c>
@@ -10828,7 +10829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" s="2" t="s">
         <v>90</v>
       </c>
@@ -10850,7 +10851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" s="2" t="s">
         <v>90</v>
       </c>
@@ -10861,7 +10862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" s="1" t="s">
         <v>91</v>
       </c>
@@ -10883,7 +10884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658" s="2" t="s">
         <v>90</v>
       </c>
@@ -10905,7 +10906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660" s="2" t="s">
         <v>90</v>
       </c>
@@ -10927,7 +10928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" s="2" t="s">
         <v>90</v>
       </c>
@@ -10949,7 +10950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" s="2" t="s">
         <v>90</v>
       </c>
@@ -10971,7 +10972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666" s="2" t="s">
         <v>90</v>
       </c>
@@ -10993,7 +10994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668" s="2" t="s">
         <v>90</v>
       </c>
@@ -11015,7 +11016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670" s="2" t="s">
         <v>90</v>
       </c>
@@ -11037,7 +11038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672" s="2" t="s">
         <v>90</v>
       </c>
@@ -11048,7 +11049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673" s="1" t="s">
         <v>92</v>
       </c>
@@ -11070,7 +11071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675" s="2" t="s">
         <v>90</v>
       </c>
@@ -11092,7 +11093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677" s="2" t="s">
         <v>90</v>
       </c>
@@ -11103,7 +11104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678" s="1" t="s">
         <v>91</v>
       </c>
@@ -11125,7 +11126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680" s="2" t="s">
         <v>90</v>
       </c>
@@ -11147,7 +11148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682" s="2" t="s">
         <v>90</v>
       </c>
@@ -11169,7 +11170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684" s="2" t="s">
         <v>90</v>
       </c>
@@ -11191,7 +11192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686" s="2" t="s">
         <v>90</v>
       </c>
@@ -11213,7 +11214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688" s="2" t="s">
         <v>90</v>
       </c>
@@ -11235,7 +11236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A690" s="2" t="s">
         <v>90</v>
       </c>
@@ -11257,7 +11258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692" s="2" t="s">
         <v>90</v>
       </c>
@@ -11279,7 +11280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694" s="2" t="s">
         <v>90</v>
       </c>
@@ -11290,7 +11291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695" s="1" t="s">
         <v>92</v>
       </c>
@@ -11312,7 +11313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697" s="2" t="s">
         <v>90</v>
       </c>
@@ -11334,7 +11335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699" s="2" t="s">
         <v>90</v>
       </c>
@@ -11345,7 +11346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700" s="1" t="s">
         <v>91</v>
       </c>
@@ -11367,7 +11368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702" s="2" t="s">
         <v>90</v>
       </c>
@@ -11389,7 +11390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A704" s="2" t="s">
         <v>90</v>
       </c>
@@ -11411,7 +11412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706" s="2" t="s">
         <v>90</v>
       </c>
@@ -11433,7 +11434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708" s="2" t="s">
         <v>90</v>
       </c>
@@ -11455,7 +11456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A710" s="2" t="s">
         <v>90</v>
       </c>
@@ -11477,7 +11478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712" s="2" t="s">
         <v>90</v>
       </c>
@@ -11499,7 +11500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714" s="2" t="s">
         <v>90</v>
       </c>
@@ -11521,7 +11522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716" s="2" t="s">
         <v>90</v>
       </c>
@@ -11532,7 +11533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A717" s="1" t="s">
         <v>92</v>
       </c>
@@ -11554,7 +11555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A719" s="2" t="s">
         <v>90</v>
       </c>
@@ -11576,7 +11577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721" s="2" t="s">
         <v>90</v>
       </c>
@@ -11587,7 +11588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A722" s="1" t="s">
         <v>91</v>
       </c>
@@ -11609,7 +11610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A724" s="2" t="s">
         <v>90</v>
       </c>
@@ -11620,7 +11621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A725" s="2" t="s">
         <v>93</v>
       </c>
@@ -11631,7 +11632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A726" s="1" t="s">
         <v>94</v>
       </c>
@@ -11653,7 +11654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A728" s="1" t="s">
         <v>90</v>
       </c>
@@ -11675,7 +11676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A730" s="1" t="s">
         <v>90</v>
       </c>
@@ -11697,7 +11698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A732" s="1" t="s">
         <v>90</v>
       </c>
@@ -11719,7 +11720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A734" s="1" t="s">
         <v>90</v>
       </c>
@@ -11741,7 +11742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A736" s="1" t="s">
         <v>90</v>
       </c>
@@ -11763,7 +11764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A738" s="1" t="s">
         <v>90</v>
       </c>
@@ -11785,7 +11786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A740" s="1" t="s">
         <v>90</v>
       </c>
@@ -11796,7 +11797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A741" s="2" t="s">
         <v>92</v>
       </c>
@@ -11818,7 +11819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A743" s="1" t="s">
         <v>90</v>
       </c>
@@ -11840,7 +11841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A745" s="1" t="s">
         <v>90</v>
       </c>
@@ -11851,7 +11852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A746" s="2" t="s">
         <v>91</v>
       </c>
@@ -11873,7 +11874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A748" s="1" t="s">
         <v>90</v>
       </c>
@@ -11895,7 +11896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A750" s="1" t="s">
         <v>90</v>
       </c>
@@ -11917,7 +11918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A752" s="1" t="s">
         <v>90</v>
       </c>
@@ -11939,7 +11940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A754" s="1" t="s">
         <v>90</v>
       </c>
@@ -11961,7 +11962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A756" s="1" t="s">
         <v>90</v>
       </c>
@@ -11983,7 +11984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A758" s="1" t="s">
         <v>90</v>
       </c>
@@ -12005,7 +12006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A760" s="1" t="s">
         <v>90</v>
       </c>
@@ -12027,7 +12028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A762" s="1" t="s">
         <v>90</v>
       </c>
@@ -12038,7 +12039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A763" s="2" t="s">
         <v>92</v>
       </c>
@@ -12060,7 +12061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A765" s="1" t="s">
         <v>90</v>
       </c>
@@ -12082,7 +12083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A767" s="1" t="s">
         <v>90</v>
       </c>
@@ -12093,7 +12094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A768" s="2" t="s">
         <v>91</v>
       </c>
@@ -12115,7 +12116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A770" s="1" t="s">
         <v>90</v>
       </c>
@@ -12137,7 +12138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A772" s="1" t="s">
         <v>90</v>
       </c>
@@ -12159,7 +12160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A774" s="1" t="s">
         <v>90</v>
       </c>
@@ -12181,7 +12182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A776" s="1" t="s">
         <v>90</v>
       </c>
@@ -12203,7 +12204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A778" s="1" t="s">
         <v>90</v>
       </c>
@@ -12225,7 +12226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A780" s="1" t="s">
         <v>90</v>
       </c>
@@ -12247,7 +12248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A782" s="1" t="s">
         <v>90</v>
       </c>
@@ -12269,7 +12270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A784" s="1" t="s">
         <v>90</v>
       </c>
@@ -12280,7 +12281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A785" s="2" t="s">
         <v>92</v>
       </c>
@@ -12302,7 +12303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A787" s="1" t="s">
         <v>90</v>
       </c>
@@ -12324,7 +12325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A789" s="1" t="s">
         <v>90</v>
       </c>
@@ -12335,7 +12336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A790" s="2" t="s">
         <v>91</v>
       </c>
@@ -12357,7 +12358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A792" s="1" t="s">
         <v>90</v>
       </c>
@@ -12379,7 +12380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A794" s="1" t="s">
         <v>90</v>
       </c>
@@ -12401,7 +12402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A796" s="1" t="s">
         <v>90</v>
       </c>
@@ -12423,7 +12424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A798" s="1" t="s">
         <v>90</v>
       </c>
@@ -12445,7 +12446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A800" s="1" t="s">
         <v>90</v>
       </c>
@@ -12467,7 +12468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A802" s="1" t="s">
         <v>90</v>
       </c>
@@ -12489,7 +12490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A804" s="1" t="s">
         <v>90</v>
       </c>
@@ -12511,7 +12512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A806" s="1" t="s">
         <v>90</v>
       </c>
@@ -12522,7 +12523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A807" s="2" t="s">
         <v>92</v>
       </c>
@@ -12544,7 +12545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A809" s="1" t="s">
         <v>90</v>
       </c>
@@ -12566,7 +12567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A811" s="1" t="s">
         <v>90</v>
       </c>
@@ -12577,7 +12578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A812" s="2" t="s">
         <v>91</v>
       </c>
@@ -12599,7 +12600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A814" s="1" t="s">
         <v>90</v>
       </c>
@@ -12621,7 +12622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A816" s="1" t="s">
         <v>90</v>
       </c>
@@ -12643,7 +12644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A818" s="1" t="s">
         <v>90</v>
       </c>
@@ -12665,7 +12666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A820" s="1" t="s">
         <v>90</v>
       </c>
@@ -12687,7 +12688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A822" s="1" t="s">
         <v>90</v>
       </c>
@@ -12709,7 +12710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A824" s="1" t="s">
         <v>90</v>
       </c>
@@ -12731,7 +12732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A826" s="1" t="s">
         <v>90</v>
       </c>
@@ -12753,7 +12754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A828" s="1" t="s">
         <v>90</v>
       </c>
@@ -12764,7 +12765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A829" s="2" t="s">
         <v>92</v>
       </c>
@@ -12786,7 +12787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A831" s="1" t="s">
         <v>90</v>
       </c>
@@ -12808,7 +12809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A833" s="1" t="s">
         <v>90</v>
       </c>
@@ -12819,7 +12820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A834" s="2" t="s">
         <v>91</v>
       </c>
@@ -12841,7 +12842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="836" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A836" s="1" t="s">
         <v>90</v>
       </c>
@@ -12852,7 +12853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A837" s="1" t="s">
         <v>93</v>
       </c>
@@ -12863,7 +12864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A838" s="2" t="s">
         <v>94</v>
       </c>
@@ -12885,7 +12886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A840" s="2" t="s">
         <v>90</v>
       </c>
@@ -12907,7 +12908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A842" s="2" t="s">
         <v>90</v>
       </c>
@@ -12929,7 +12930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="844" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A844" s="2" t="s">
         <v>90</v>
       </c>
@@ -12951,7 +12952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A846" s="2" t="s">
         <v>90</v>
       </c>
@@ -12973,7 +12974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="848" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A848" s="2" t="s">
         <v>90</v>
       </c>
@@ -12995,7 +12996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="850" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A850" s="2" t="s">
         <v>90</v>
       </c>
@@ -13017,7 +13018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="852" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A852" s="2" t="s">
         <v>90</v>
       </c>
@@ -13028,7 +13029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="853" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A853" s="1" t="s">
         <v>92</v>
       </c>
@@ -13050,7 +13051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="855" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A855" s="2" t="s">
         <v>90</v>
       </c>
@@ -13072,7 +13073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="857" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A857" s="2" t="s">
         <v>90</v>
       </c>
@@ -13083,7 +13084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="858" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A858" s="1" t="s">
         <v>91</v>
       </c>
@@ -13105,7 +13106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="860" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A860" s="2" t="s">
         <v>90</v>
       </c>
@@ -13127,7 +13128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="862" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A862" s="2" t="s">
         <v>90</v>
       </c>
@@ -13149,7 +13150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="864" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A864" s="2" t="s">
         <v>90</v>
       </c>
@@ -13171,7 +13172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="866" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A866" s="2" t="s">
         <v>90</v>
       </c>
@@ -13193,7 +13194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="868" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A868" s="2" t="s">
         <v>90</v>
       </c>
@@ -13215,7 +13216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="870" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A870" s="2" t="s">
         <v>90</v>
       </c>
@@ -13237,7 +13238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="872" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A872" s="2" t="s">
         <v>90</v>
       </c>
@@ -13259,7 +13260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="874" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A874" s="2" t="s">
         <v>90</v>
       </c>
@@ -13270,7 +13271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="875" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A875" s="1" t="s">
         <v>92</v>
       </c>
@@ -13292,7 +13293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="877" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A877" s="2" t="s">
         <v>90</v>
       </c>
@@ -13314,7 +13315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="879" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A879" s="2" t="s">
         <v>90</v>
       </c>
@@ -13325,7 +13326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="880" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A880" s="1" t="s">
         <v>91</v>
       </c>
@@ -13347,7 +13348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="882" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A882" s="2" t="s">
         <v>90</v>
       </c>
@@ -13369,7 +13370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="884" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A884" s="2" t="s">
         <v>90</v>
       </c>
@@ -13391,7 +13392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="886" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A886" s="2" t="s">
         <v>90</v>
       </c>
@@ -13413,7 +13414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="888" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A888" s="2" t="s">
         <v>90</v>
       </c>
@@ -13435,7 +13436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="890" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A890" s="2" t="s">
         <v>90</v>
       </c>
@@ -13457,7 +13458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="892" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A892" s="2" t="s">
         <v>90</v>
       </c>
@@ -13479,7 +13480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="894" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A894" s="2" t="s">
         <v>90</v>
       </c>
@@ -13501,7 +13502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="896" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A896" s="2" t="s">
         <v>90</v>
       </c>
@@ -13512,7 +13513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="897" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A897" s="1" t="s">
         <v>92</v>
       </c>
@@ -13534,7 +13535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="899" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A899" s="2" t="s">
         <v>90</v>
       </c>
@@ -13556,7 +13557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="901" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A901" s="2" t="s">
         <v>90</v>
       </c>
@@ -13567,7 +13568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="902" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A902" s="1" t="s">
         <v>91</v>
       </c>
@@ -13589,7 +13590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="904" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A904" s="2" t="s">
         <v>90</v>
       </c>
@@ -13611,7 +13612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="906" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A906" s="2" t="s">
         <v>90</v>
       </c>
@@ -13633,7 +13634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="908" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A908" s="2" t="s">
         <v>90</v>
       </c>
@@ -13655,7 +13656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="910" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A910" s="2" t="s">
         <v>90</v>
       </c>
@@ -13677,7 +13678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="912" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A912" s="2" t="s">
         <v>90</v>
       </c>
@@ -13699,7 +13700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="914" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A914" s="2" t="s">
         <v>90</v>
       </c>
@@ -13721,7 +13722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="916" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A916" s="2" t="s">
         <v>90</v>
       </c>
@@ -13743,7 +13744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="918" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A918" s="2" t="s">
         <v>90</v>
       </c>
@@ -13754,7 +13755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="919" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A919" s="1" t="s">
         <v>92</v>
       </c>
@@ -13776,7 +13777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="921" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A921" s="2" t="s">
         <v>90</v>
       </c>
@@ -13798,7 +13799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="923" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A923" s="2" t="s">
         <v>90</v>
       </c>
@@ -13809,7 +13810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="924" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A924" s="1" t="s">
         <v>91</v>
       </c>
@@ -13831,7 +13832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="926" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A926" s="2" t="s">
         <v>90</v>
       </c>
@@ -13853,7 +13854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="928" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A928" s="2" t="s">
         <v>90</v>
       </c>
@@ -13875,7 +13876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="930" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A930" s="2" t="s">
         <v>90</v>
       </c>
@@ -13897,7 +13898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="932" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A932" s="2" t="s">
         <v>90</v>
       </c>
@@ -13919,7 +13920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="934" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A934" s="2" t="s">
         <v>90</v>
       </c>
@@ -13941,7 +13942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="936" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A936" s="2" t="s">
         <v>90</v>
       </c>
@@ -13963,7 +13964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="938" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A938" s="2" t="s">
         <v>90</v>
       </c>
@@ -13985,7 +13986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="940" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A940" s="2" t="s">
         <v>90</v>
       </c>
@@ -13996,7 +13997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="941" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A941" s="1" t="s">
         <v>92</v>
       </c>
@@ -14018,7 +14019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="943" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A943" s="2" t="s">
         <v>90</v>
       </c>
@@ -14040,7 +14041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="945" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A945" s="2" t="s">
         <v>90</v>
       </c>
@@ -14051,7 +14052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="946" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A946" s="1" t="s">
         <v>91</v>
       </c>
@@ -14073,7 +14074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="948" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A948" s="2" t="s">
         <v>90</v>
       </c>
@@ -14084,7 +14085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="949" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A949" s="2" t="s">
         <v>93</v>
       </c>
@@ -14095,7 +14096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="950" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A950" s="1" t="s">
         <v>94</v>
       </c>
@@ -14117,7 +14118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="952" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A952" s="1" t="s">
         <v>90</v>
       </c>
@@ -14139,7 +14140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="954" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A954" s="1" t="s">
         <v>90</v>
       </c>
@@ -14161,7 +14162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="956" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A956" s="1" t="s">
         <v>90</v>
       </c>
@@ -14183,7 +14184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="958" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A958" s="1" t="s">
         <v>90</v>
       </c>
@@ -14205,7 +14206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="960" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A960" s="1" t="s">
         <v>90</v>
       </c>
@@ -14227,7 +14228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="962" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A962" s="1" t="s">
         <v>90</v>
       </c>
@@ -14249,7 +14250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="964" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A964" s="1" t="s">
         <v>90</v>
       </c>
@@ -14260,7 +14261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="965" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A965" s="2" t="s">
         <v>92</v>
       </c>
@@ -14282,7 +14283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="967" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A967" s="1" t="s">
         <v>90</v>
       </c>
@@ -14304,7 +14305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="969" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A969" s="1" t="s">
         <v>90</v>
       </c>
@@ -14315,7 +14316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="970" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A970" s="2" t="s">
         <v>91</v>
       </c>
@@ -14337,7 +14338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="972" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A972" s="1" t="s">
         <v>90</v>
       </c>
@@ -14359,7 +14360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="974" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A974" s="1" t="s">
         <v>90</v>
       </c>
@@ -14381,7 +14382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="976" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A976" s="1" t="s">
         <v>90</v>
       </c>
@@ -14403,7 +14404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="978" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A978" s="1" t="s">
         <v>90</v>
       </c>
@@ -14425,7 +14426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="980" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A980" s="1" t="s">
         <v>90</v>
       </c>
@@ -14447,7 +14448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="982" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A982" s="1" t="s">
         <v>90</v>
       </c>
@@ -14469,7 +14470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="984" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A984" s="1" t="s">
         <v>90</v>
       </c>
@@ -14491,7 +14492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="986" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A986" s="1" t="s">
         <v>90</v>
       </c>
@@ -14502,7 +14503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="987" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A987" s="2" t="s">
         <v>92</v>
       </c>
@@ -14524,7 +14525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="989" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A989" s="1" t="s">
         <v>90</v>
       </c>
@@ -14546,7 +14547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="991" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A991" s="1" t="s">
         <v>90</v>
       </c>
@@ -14557,7 +14558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="992" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A992" s="2" t="s">
         <v>91</v>
       </c>
@@ -14579,7 +14580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="994" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A994" s="1" t="s">
         <v>90</v>
       </c>
@@ -14601,7 +14602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="996" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A996" s="1" t="s">
         <v>90</v>
       </c>
@@ -14623,7 +14624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="998" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A998" s="1" t="s">
         <v>90</v>
       </c>
@@ -14645,7 +14646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1000" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1000" s="1" t="s">
         <v>90</v>
       </c>
@@ -14667,7 +14668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1002" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1002" s="1" t="s">
         <v>90</v>
       </c>
@@ -14689,7 +14690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1004" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1004" s="1" t="s">
         <v>90</v>
       </c>
@@ -14711,7 +14712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1006" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1006" s="1" t="s">
         <v>90</v>
       </c>
@@ -14733,7 +14734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1008" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1008" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1008" s="1" t="s">
         <v>90</v>
       </c>
@@ -14744,7 +14745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1009" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1009" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1009" s="2" t="s">
         <v>92</v>
       </c>
@@ -14766,7 +14767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1011" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1011" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1011" s="1" t="s">
         <v>90</v>
       </c>
@@ -14788,7 +14789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1013" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1013" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1013" s="1" t="s">
         <v>90</v>
       </c>
@@ -14799,7 +14800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1014" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1014" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1014" s="2" t="s">
         <v>91</v>
       </c>
@@ -14810,7 +14811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1015" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1015" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1015" s="2" t="s">
         <v>92</v>
       </c>
@@ -14832,7 +14833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1017" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1017" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1017" s="2" t="s">
         <v>90</v>
       </c>
@@ -14843,7 +14844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1018" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1018" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1018" s="1" t="s">
         <v>92</v>
       </c>
@@ -14865,7 +14866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1020" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1020" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1020" s="1" t="s">
         <v>90</v>
       </c>
@@ -14887,7 +14888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1022" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1022" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1022" s="1" t="s">
         <v>90</v>
       </c>
@@ -14909,7 +14910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1024" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1024" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1024" s="1" t="s">
         <v>90</v>
       </c>
@@ -14931,7 +14932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1026" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1026" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1026" s="1" t="s">
         <v>90</v>
       </c>
@@ -14953,7 +14954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1028" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1028" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1028" s="1" t="s">
         <v>90</v>
       </c>
@@ -14975,7 +14976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1030" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1030" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1030" s="1" t="s">
         <v>90</v>
       </c>
@@ -14987,7 +14988,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1030" xr:uid="{9EED1BC5-B507-4948-96CB-B0DA1993CC09}"/>
+  <autoFilter ref="A1:C1030" xr:uid="{9EED1BC5-B507-4948-96CB-B0DA1993CC09}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20416,7 +20423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BB7540-FA91-43D6-8164-BB1537060C42}">
   <dimension ref="A1:C1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1005" workbookViewId="0">
+    <sheetView topLeftCell="A1005" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C1033"/>
     </sheetView>
   </sheetViews>
